--- a/maps/FunctionalStatus-FunctionalOrMentalStatus.xlsx
+++ b/maps/FunctionalStatus-FunctionalOrMentalStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{C7E22464-8063-5A48-8AF8-B8CBF9685F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950EC7F5-AB53-4932-A5DC-BDAFA7BDD114}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{C7E22464-8063-5A48-8AF8-B8CBF9685F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25DE8D4-0ED9-4071-A068-1F641B4F0B33}"/>
   <bookViews>
-    <workbookView xWindow="37080" yWindow="-12120" windowWidth="20415" windowHeight="17385" xr2:uid="{4D4295CA-5E27-D54A-800A-CCB7595BF199}"/>
+    <workbookView xWindow="5925" yWindow="225" windowWidth="22875" windowHeight="12165" xr2:uid="{4D4295CA-5E27-D54A-800A-CCB7595BF199}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>xtehr</t>
   </si>
@@ -47,39 +47,6 @@
     <t>EHDSFunctionalStatus</t>
   </si>
   <si>
-    <t>EHDSFunctionalStatus.header</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.subject</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.identifier</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.authorship</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.authorship.author[x]</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.authorship.datetime</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.lastUpdate</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.status</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.statusReason[x]</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.language</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.version</t>
-  </si>
-  <si>
     <t>EHDSFunctionalStatus.presentedForm</t>
   </si>
   <si>
@@ -128,7 +95,7 @@
     <t>FunctionalOrMentalStatus.Comment</t>
   </si>
   <si>
-    <t>FunctionalOrMentalStatus.MedicalDevice:::MedicalDevice</t>
+    <t>FunctionalOrMentalStatus.MedicalDevice::MedicalDevice</t>
   </si>
 </sst>
 </file>
@@ -524,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81200B0-CEC8-5048-84D0-94AD3B33B9B6}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,6 +515,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -558,6 +528,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -593,103 +566,32 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
